--- a/EPAYGOLF/wwwroot/Document/SalesReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/SalesReporting.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sales" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Jul-2023 To 22-Jun-2024</t>
+    <t>01-Jul-2023 To 24-Jun-2024</t>
   </si>
   <si>
     <t xml:space="preserve">GGC TOTAL NET AMOUNT: </t>
@@ -1166,14 +1166,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" applyFont="1"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="0"/>
     <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1"/>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1"/>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="165" applyNumberFormat="1" fontId="0"/>
     <xf numFmtId="166" applyNumberFormat="1" fontId="0"/>
   </cellXfs>
@@ -1223,9 +1228,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.132932662963867" customWidth="1"/>
+    <col min="1" max="1" width="26.793149948120117" customWidth="1"/>
     <col min="2" max="2" width="39.916595458984375" customWidth="1"/>
-    <col min="3" max="3" width="27.384668350219727" customWidth="1"/>
+    <col min="3" max="3" width="20.365819931030273" customWidth="1"/>
     <col min="4" max="4" width="11.634980201721191" customWidth="1"/>
     <col min="5" max="5" width="10.5802001953125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
@@ -1244,47 +1249,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6">
+      <c r="B5" s="6">
         <v>861.19</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3">
+      <c r="B6" s="7">
         <v>163</v>
       </c>
     </row>
@@ -1345,7 +1350,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7">
+      <c r="A8" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B8" s="0" t="s">
@@ -1387,7 +1392,7 @@
       <c r="N8" s="4">
         <v>10.3</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="9">
         <v>45292</v>
       </c>
       <c r="P8" s="4">
@@ -1401,7 +1406,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="7">
+      <c r="A9" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -1443,7 +1448,7 @@
       <c r="N9" s="4">
         <v>2.43</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="9">
         <v>45292</v>
       </c>
       <c r="P9" s="4">
@@ -1457,7 +1462,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7">
+      <c r="A10" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -1499,7 +1504,7 @@
       <c r="N10" s="4">
         <v>5.05</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="9">
         <v>45292</v>
       </c>
       <c r="P10" s="4">
@@ -1513,7 +1518,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7">
+      <c r="A11" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -1555,7 +1560,7 @@
       <c r="N11" s="4">
         <v>2.95</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="9">
         <v>45292</v>
       </c>
       <c r="P11" s="4">
@@ -1569,7 +1574,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="7">
+      <c r="A12" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -1611,7 +1616,7 @@
       <c r="N12" s="4">
         <v>11.35</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="9">
         <v>45292</v>
       </c>
       <c r="P12" s="4">
@@ -1625,7 +1630,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7">
+      <c r="A13" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B13" s="0" t="s">
@@ -1667,7 +1672,7 @@
       <c r="N13" s="4">
         <v>5.05</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="9">
         <v>45292</v>
       </c>
       <c r="P13" s="4">
@@ -1681,7 +1686,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7">
+      <c r="A14" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B14" s="0" t="s">
@@ -1723,7 +1728,7 @@
       <c r="N14" s="4">
         <v>5.05</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="9">
         <v>45292</v>
       </c>
       <c r="P14" s="4">
@@ -1737,7 +1742,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="7">
+      <c r="A15" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B15" s="0" t="s">
@@ -1779,7 +1784,7 @@
       <c r="N15" s="4">
         <v>5.05</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="9">
         <v>45292</v>
       </c>
       <c r="P15" s="4">
@@ -1793,7 +1798,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -1835,7 +1840,7 @@
       <c r="N16" s="4">
         <v>0.5</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="9">
         <v>45292</v>
       </c>
       <c r="P16" s="4">
@@ -1849,7 +1854,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="7">
+      <c r="A17" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -1891,7 +1896,7 @@
       <c r="N17" s="4">
         <v>0.5</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="9">
         <v>45292</v>
       </c>
       <c r="P17" s="4">
@@ -1905,7 +1910,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="7">
+      <c r="A18" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B18" s="0" t="s">
@@ -1947,7 +1952,7 @@
       <c r="N18" s="4">
         <v>5.05</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="9">
         <v>45292</v>
       </c>
       <c r="P18" s="4">
@@ -1961,7 +1966,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="7">
+      <c r="A19" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B19" s="0" t="s">
@@ -2003,7 +2008,7 @@
       <c r="N19" s="4">
         <v>6.1</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="9">
         <v>45292</v>
       </c>
       <c r="P19" s="4">
@@ -2017,7 +2022,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="7">
+      <c r="A20" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -2059,7 +2064,7 @@
       <c r="N20" s="4">
         <v>5.05</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="9">
         <v>45292</v>
       </c>
       <c r="P20" s="4">
@@ -2073,7 +2078,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="7">
+      <c r="A21" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -2115,7 +2120,7 @@
       <c r="N21" s="4">
         <v>5.05</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="9">
         <v>45292</v>
       </c>
       <c r="P21" s="4">
@@ -2129,7 +2134,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7">
+      <c r="A22" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B22" s="0" t="s">
@@ -2171,7 +2176,7 @@
       <c r="N22" s="4">
         <v>5.05</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="9">
         <v>45292</v>
       </c>
       <c r="P22" s="4">
@@ -2185,7 +2190,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="7">
+      <c r="A23" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B23" s="0" t="s">
@@ -2227,7 +2232,7 @@
       <c r="N23" s="4">
         <v>15.55</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="9">
         <v>45292</v>
       </c>
       <c r="P23" s="4">
@@ -2241,7 +2246,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="7">
+      <c r="A24" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B24" s="0" t="s">
@@ -2283,7 +2288,7 @@
       <c r="N24" s="4">
         <v>1.9</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="9">
         <v>45292</v>
       </c>
       <c r="P24" s="4">
@@ -2297,7 +2302,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="7">
+      <c r="A25" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B25" s="0" t="s">
@@ -2339,7 +2344,7 @@
       <c r="N25" s="4">
         <v>5.05</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="9">
         <v>45292</v>
       </c>
       <c r="P25" s="4">
@@ -2353,7 +2358,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="7">
+      <c r="A26" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B26" s="0" t="s">
@@ -2395,7 +2400,7 @@
       <c r="N26" s="4">
         <v>2.43</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="9">
         <v>45292</v>
       </c>
       <c r="P26" s="4">
@@ -2409,7 +2414,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="7">
+      <c r="A27" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B27" s="0" t="s">
@@ -2451,7 +2456,7 @@
       <c r="N27" s="4">
         <v>0.5</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="9">
         <v>45292</v>
       </c>
       <c r="P27" s="4">
@@ -2465,7 +2470,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="7">
+      <c r="A28" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B28" s="0" t="s">
@@ -2507,7 +2512,7 @@
       <c r="N28" s="4">
         <v>0.5</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="9">
         <v>45292</v>
       </c>
       <c r="P28" s="4">
@@ -2521,7 +2526,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="7">
+      <c r="A29" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -2563,7 +2568,7 @@
       <c r="N29" s="4">
         <v>0.5</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="9">
         <v>45292</v>
       </c>
       <c r="P29" s="4">
@@ -2577,7 +2582,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="7">
+      <c r="A30" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -2619,7 +2624,7 @@
       <c r="N30" s="4">
         <v>0.5</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="9">
         <v>45292</v>
       </c>
       <c r="P30" s="4">
@@ -2633,7 +2638,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="7">
+      <c r="A31" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B31" s="0" t="s">
@@ -2675,7 +2680,7 @@
       <c r="N31" s="4">
         <v>20.8</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="9">
         <v>45292</v>
       </c>
       <c r="P31" s="4">
@@ -2689,7 +2694,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="7">
+      <c r="A32" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B32" s="0" t="s">
@@ -2731,7 +2736,7 @@
       <c r="N32" s="4">
         <v>5.05</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="9">
         <v>45292</v>
       </c>
       <c r="P32" s="4">
@@ -2745,7 +2750,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="7">
+      <c r="A33" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B33" s="0" t="s">
@@ -2787,7 +2792,7 @@
       <c r="N33" s="4">
         <v>7.68</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="9">
         <v>45292</v>
       </c>
       <c r="P33" s="4">
@@ -2801,7 +2806,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="7">
+      <c r="A34" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B34" s="0" t="s">
@@ -2843,7 +2848,7 @@
       <c r="N34" s="4">
         <v>4</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="9">
         <v>45292</v>
       </c>
       <c r="P34" s="4">
@@ -2857,7 +2862,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="7">
+      <c r="A35" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B35" s="0" t="s">
@@ -2899,7 +2904,7 @@
       <c r="N35" s="4">
         <v>10.3</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="9">
         <v>45292</v>
       </c>
       <c r="P35" s="4">
@@ -2913,7 +2918,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="7">
+      <c r="A36" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B36" s="0" t="s">
@@ -2955,7 +2960,7 @@
       <c r="N36" s="4">
         <v>5.05</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="9">
         <v>45292</v>
       </c>
       <c r="P36" s="4">
@@ -2969,7 +2974,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="7">
+      <c r="A37" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B37" s="0" t="s">
@@ -3011,7 +3016,7 @@
       <c r="N37" s="4">
         <v>0.5</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="9">
         <v>45292</v>
       </c>
       <c r="P37" s="4">
@@ -3025,7 +3030,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="7">
+      <c r="A38" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B38" s="0" t="s">
@@ -3067,7 +3072,7 @@
       <c r="N38" s="4">
         <v>2.43</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="9">
         <v>45292</v>
       </c>
       <c r="P38" s="4">
@@ -3081,7 +3086,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B39" s="0" t="s">
@@ -3123,7 +3128,7 @@
       <c r="N39" s="4">
         <v>5.05</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="9">
         <v>45292</v>
       </c>
       <c r="P39" s="4">
@@ -3137,7 +3142,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="7">
+      <c r="A40" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B40" s="0" t="s">
@@ -3179,7 +3184,7 @@
       <c r="N40" s="4">
         <v>10.3</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="9">
         <v>45292</v>
       </c>
       <c r="P40" s="4">
@@ -3193,7 +3198,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="7">
+      <c r="A41" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -3235,7 +3240,7 @@
       <c r="N41" s="4">
         <v>15.55</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="9">
         <v>45292</v>
       </c>
       <c r="P41" s="4">
@@ -3249,7 +3254,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="7">
+      <c r="A42" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -3291,7 +3296,7 @@
       <c r="N42" s="4">
         <v>4</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="9">
         <v>45292</v>
       </c>
       <c r="P42" s="4">
@@ -3305,7 +3310,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="7">
+      <c r="A43" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B43" s="0" t="s">
@@ -3347,7 +3352,7 @@
       <c r="N43" s="4">
         <v>5.05</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="9">
         <v>45292</v>
       </c>
       <c r="P43" s="4">
@@ -3361,7 +3366,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="7">
+      <c r="A44" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -3403,7 +3408,7 @@
       <c r="N44" s="4">
         <v>3.48</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="9">
         <v>45292</v>
       </c>
       <c r="P44" s="4">
@@ -3417,7 +3422,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="7">
+      <c r="A45" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -3459,7 +3464,7 @@
       <c r="N45" s="4">
         <v>2.43</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="9">
         <v>45292</v>
       </c>
       <c r="P45" s="4">
@@ -3473,7 +3478,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="7">
+      <c r="A46" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B46" s="0" t="s">
@@ -3515,7 +3520,7 @@
       <c r="N46" s="4">
         <v>0.5</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="9">
         <v>45292</v>
       </c>
       <c r="P46" s="4">
@@ -3529,7 +3534,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="7">
+      <c r="A47" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -3571,7 +3576,7 @@
       <c r="N47" s="4">
         <v>26.05</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O47" s="9">
         <v>45292</v>
       </c>
       <c r="P47" s="4">
@@ -3585,7 +3590,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="7">
+      <c r="A48" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B48" s="0" t="s">
@@ -3627,7 +3632,7 @@
       <c r="N48" s="4">
         <v>18.18</v>
       </c>
-      <c r="O48" s="8">
+      <c r="O48" s="9">
         <v>45292</v>
       </c>
       <c r="P48" s="4">
@@ -3641,7 +3646,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="7">
+      <c r="A49" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -3683,7 +3688,7 @@
       <c r="N49" s="4">
         <v>5.05</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O49" s="9">
         <v>45292</v>
       </c>
       <c r="P49" s="4">
@@ -3697,7 +3702,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="7">
+      <c r="A50" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B50" s="0" t="s">
@@ -3739,7 +3744,7 @@
       <c r="N50" s="4">
         <v>0.5</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O50" s="9">
         <v>45292</v>
       </c>
       <c r="P50" s="4">
@@ -3753,7 +3758,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="7">
+      <c r="A51" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B51" s="0" t="s">
@@ -3795,7 +3800,7 @@
       <c r="N51" s="4">
         <v>5.05</v>
       </c>
-      <c r="O51" s="8">
+      <c r="O51" s="9">
         <v>45292</v>
       </c>
       <c r="P51" s="4">
@@ -3809,7 +3814,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="7">
+      <c r="A52" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -3851,7 +3856,7 @@
       <c r="N52" s="4">
         <v>5.05</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O52" s="9">
         <v>45292</v>
       </c>
       <c r="P52" s="4">
@@ -3865,7 +3870,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="7">
+      <c r="A53" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B53" s="0" t="s">
@@ -3907,7 +3912,7 @@
       <c r="N53" s="4">
         <v>5.05</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O53" s="9">
         <v>45292</v>
       </c>
       <c r="P53" s="4">
@@ -3921,7 +3926,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="7">
+      <c r="A54" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B54" s="0" t="s">
@@ -3963,7 +3968,7 @@
       <c r="N54" s="4">
         <v>10</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O54" s="9">
         <v>45292</v>
       </c>
       <c r="P54" s="4">
@@ -3977,7 +3982,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="7">
+      <c r="A55" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B55" s="0" t="s">
@@ -4019,7 +4024,7 @@
       <c r="N55" s="4">
         <v>26.05</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="9">
         <v>45292</v>
       </c>
       <c r="P55" s="4">
@@ -4033,7 +4038,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="7">
+      <c r="A56" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B56" s="0" t="s">
@@ -4075,7 +4080,7 @@
       <c r="N56" s="4">
         <v>26.05</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O56" s="9">
         <v>45292</v>
       </c>
       <c r="P56" s="4">
@@ -4089,7 +4094,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="7">
+      <c r="A57" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B57" s="0" t="s">
@@ -4131,7 +4136,7 @@
       <c r="N57" s="4">
         <v>10.3</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O57" s="9">
         <v>45292</v>
       </c>
       <c r="P57" s="4">
@@ -4145,7 +4150,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="7">
+      <c r="A58" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -4187,7 +4192,7 @@
       <c r="N58" s="4">
         <v>2.43</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O58" s="9">
         <v>45292</v>
       </c>
       <c r="P58" s="4">
@@ -4201,7 +4206,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="7">
+      <c r="A59" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B59" s="0" t="s">
@@ -4243,7 +4248,7 @@
       <c r="N59" s="4">
         <v>2.43</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O59" s="9">
         <v>45292</v>
       </c>
       <c r="P59" s="4">
@@ -4257,7 +4262,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="7">
+      <c r="A60" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B60" s="0" t="s">
@@ -4299,7 +4304,7 @@
       <c r="N60" s="4">
         <v>2.43</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O60" s="9">
         <v>45292</v>
       </c>
       <c r="P60" s="4">
@@ -4313,7 +4318,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="7">
+      <c r="A61" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B61" s="0" t="s">
@@ -4355,7 +4360,7 @@
       <c r="N61" s="4">
         <v>2.43</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O61" s="9">
         <v>45292</v>
       </c>
       <c r="P61" s="4">
@@ -4369,7 +4374,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="7">
+      <c r="A62" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B62" s="0" t="s">
@@ -4411,7 +4416,7 @@
       <c r="N62" s="4">
         <v>0.5</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O62" s="9">
         <v>45292</v>
       </c>
       <c r="P62" s="4">
@@ -4425,7 +4430,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="7">
+      <c r="A63" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B63" s="0" t="s">
@@ -4467,7 +4472,7 @@
       <c r="N63" s="4">
         <v>2.43</v>
       </c>
-      <c r="O63" s="8">
+      <c r="O63" s="9">
         <v>45292</v>
       </c>
       <c r="P63" s="4">
@@ -4481,7 +4486,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="7">
+      <c r="A64" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B64" s="0" t="s">
@@ -4523,7 +4528,7 @@
       <c r="N64" s="4">
         <v>0.5</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="9">
         <v>45292</v>
       </c>
       <c r="P64" s="4">
@@ -4537,7 +4542,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="7">
+      <c r="A65" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B65" s="0" t="s">
@@ -4579,7 +4584,7 @@
       <c r="N65" s="4">
         <v>0.5</v>
       </c>
-      <c r="O65" s="8">
+      <c r="O65" s="9">
         <v>45292</v>
       </c>
       <c r="P65" s="4">
@@ -4593,7 +4598,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="7">
+      <c r="A66" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -4635,7 +4640,7 @@
       <c r="N66" s="4">
         <v>0.5</v>
       </c>
-      <c r="O66" s="8">
+      <c r="O66" s="9">
         <v>45292</v>
       </c>
       <c r="P66" s="4">
@@ -4649,7 +4654,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="7">
+      <c r="A67" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B67" s="0" t="s">
@@ -4691,7 +4696,7 @@
       <c r="N67" s="4">
         <v>0.5</v>
       </c>
-      <c r="O67" s="8">
+      <c r="O67" s="9">
         <v>45292</v>
       </c>
       <c r="P67" s="4">
@@ -4705,7 +4710,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="7">
+      <c r="A68" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B68" s="0" t="s">
@@ -4747,7 +4752,7 @@
       <c r="N68" s="4">
         <v>0.5</v>
       </c>
-      <c r="O68" s="8">
+      <c r="O68" s="9">
         <v>45292</v>
       </c>
       <c r="P68" s="4">
@@ -4761,7 +4766,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="7">
+      <c r="A69" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B69" s="0" t="s">
@@ -4803,7 +4808,7 @@
       <c r="N69" s="4">
         <v>0.5</v>
       </c>
-      <c r="O69" s="8">
+      <c r="O69" s="9">
         <v>45292</v>
       </c>
       <c r="P69" s="4">
@@ -4817,7 +4822,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="7">
+      <c r="A70" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B70" s="0" t="s">
@@ -4859,7 +4864,7 @@
       <c r="N70" s="4">
         <v>0.5</v>
       </c>
-      <c r="O70" s="8">
+      <c r="O70" s="9">
         <v>45292</v>
       </c>
       <c r="P70" s="4">
@@ -4873,7 +4878,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="7">
+      <c r="A71" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B71" s="0" t="s">
@@ -4915,7 +4920,7 @@
       <c r="N71" s="4">
         <v>4.53</v>
       </c>
-      <c r="O71" s="8">
+      <c r="O71" s="9">
         <v>45292</v>
       </c>
       <c r="P71" s="4">
@@ -4929,7 +4934,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="7">
+      <c r="A72" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B72" s="0" t="s">
@@ -4971,7 +4976,7 @@
       <c r="N72" s="4">
         <v>2.43</v>
       </c>
-      <c r="O72" s="8">
+      <c r="O72" s="9">
         <v>45292</v>
       </c>
       <c r="P72" s="4">
@@ -4985,7 +4990,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="7">
+      <c r="A73" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B73" s="0" t="s">
@@ -5027,7 +5032,7 @@
       <c r="N73" s="4">
         <v>5.05</v>
       </c>
-      <c r="O73" s="8">
+      <c r="O73" s="9">
         <v>45292</v>
       </c>
       <c r="P73" s="4">
@@ -5041,7 +5046,7 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="7">
+      <c r="A74" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B74" s="0" t="s">
@@ -5083,7 +5088,7 @@
       <c r="N74" s="4">
         <v>0.5</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O74" s="9">
         <v>45292</v>
       </c>
       <c r="P74" s="4">
@@ -5097,7 +5102,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="7">
+      <c r="A75" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B75" s="0" t="s">
@@ -5139,7 +5144,7 @@
       <c r="N75" s="4">
         <v>5.05</v>
       </c>
-      <c r="O75" s="8">
+      <c r="O75" s="9">
         <v>45292</v>
       </c>
       <c r="P75" s="4">
@@ -5153,7 +5158,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="7">
+      <c r="A76" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B76" s="0" t="s">
@@ -5195,7 +5200,7 @@
       <c r="N76" s="4">
         <v>0.5</v>
       </c>
-      <c r="O76" s="8">
+      <c r="O76" s="9">
         <v>45292</v>
       </c>
       <c r="P76" s="4">
@@ -5209,7 +5214,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="7">
+      <c r="A77" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B77" s="0" t="s">
@@ -5251,7 +5256,7 @@
       <c r="N77" s="4">
         <v>5.05</v>
       </c>
-      <c r="O77" s="8">
+      <c r="O77" s="9">
         <v>45292</v>
       </c>
       <c r="P77" s="4">
@@ -5265,7 +5270,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="7">
+      <c r="A78" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B78" s="0" t="s">
@@ -5307,7 +5312,7 @@
       <c r="N78" s="4">
         <v>2.43</v>
       </c>
-      <c r="O78" s="8">
+      <c r="O78" s="9">
         <v>45292</v>
       </c>
       <c r="P78" s="4">
@@ -5321,7 +5326,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="7">
+      <c r="A79" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B79" s="0" t="s">
@@ -5363,7 +5368,7 @@
       <c r="N79" s="4">
         <v>10.3</v>
       </c>
-      <c r="O79" s="8">
+      <c r="O79" s="9">
         <v>45292</v>
       </c>
       <c r="P79" s="4">
@@ -5377,7 +5382,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="7">
+      <c r="A80" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B80" s="0" t="s">
@@ -5419,7 +5424,7 @@
       <c r="N80" s="4">
         <v>7.68</v>
       </c>
-      <c r="O80" s="8">
+      <c r="O80" s="9">
         <v>45292</v>
       </c>
       <c r="P80" s="4">
@@ -5433,7 +5438,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="7">
+      <c r="A81" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B81" s="0" t="s">
@@ -5475,7 +5480,7 @@
       <c r="N81" s="4">
         <v>7.68</v>
       </c>
-      <c r="O81" s="8">
+      <c r="O81" s="9">
         <v>45292</v>
       </c>
       <c r="P81" s="4">
@@ -5489,7 +5494,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="7">
+      <c r="A82" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B82" s="0" t="s">
@@ -5531,7 +5536,7 @@
       <c r="N82" s="4">
         <v>9.25</v>
       </c>
-      <c r="O82" s="8">
+      <c r="O82" s="9">
         <v>45292</v>
       </c>
       <c r="P82" s="4">
@@ -5545,7 +5550,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="7">
+      <c r="A83" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B83" s="0" t="s">
@@ -5587,7 +5592,7 @@
       <c r="N83" s="4">
         <v>2.43</v>
       </c>
-      <c r="O83" s="8">
+      <c r="O83" s="9">
         <v>45292</v>
       </c>
       <c r="P83" s="4">
@@ -5601,7 +5606,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="7">
+      <c r="A84" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B84" s="0" t="s">
@@ -5643,7 +5648,7 @@
       <c r="N84" s="4">
         <v>2.43</v>
       </c>
-      <c r="O84" s="8">
+      <c r="O84" s="9">
         <v>45292</v>
       </c>
       <c r="P84" s="4">
@@ -5657,7 +5662,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="7">
+      <c r="A85" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B85" s="0" t="s">
@@ -5699,7 +5704,7 @@
       <c r="N85" s="4">
         <v>4</v>
       </c>
-      <c r="O85" s="8">
+      <c r="O85" s="9">
         <v>45292</v>
       </c>
       <c r="P85" s="4">
@@ -5713,7 +5718,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="7">
+      <c r="A86" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B86" s="0" t="s">
@@ -5755,7 +5760,7 @@
       <c r="N86" s="4">
         <v>1</v>
       </c>
-      <c r="O86" s="8">
+      <c r="O86" s="9">
         <v>45292</v>
       </c>
       <c r="P86" s="4">
@@ -5769,7 +5774,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="7">
+      <c r="A87" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B87" s="0" t="s">
@@ -5811,7 +5816,7 @@
       <c r="N87" s="4">
         <v>0.5</v>
       </c>
-      <c r="O87" s="8">
+      <c r="O87" s="9">
         <v>45292</v>
       </c>
       <c r="P87" s="4">
@@ -5825,7 +5830,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="7">
+      <c r="A88" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B88" s="0" t="s">
@@ -5867,7 +5872,7 @@
       <c r="N88" s="4">
         <v>2.43</v>
       </c>
-      <c r="O88" s="8">
+      <c r="O88" s="9">
         <v>45292</v>
       </c>
       <c r="P88" s="4">
@@ -5881,7 +5886,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="7">
+      <c r="A89" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B89" s="0" t="s">
@@ -5923,7 +5928,7 @@
       <c r="N89" s="4">
         <v>5.05</v>
       </c>
-      <c r="O89" s="8">
+      <c r="O89" s="9">
         <v>45292</v>
       </c>
       <c r="P89" s="4">
@@ -5937,7 +5942,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="7">
+      <c r="A90" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B90" s="0" t="s">
@@ -5979,7 +5984,7 @@
       <c r="N90" s="4">
         <v>10.3</v>
       </c>
-      <c r="O90" s="8">
+      <c r="O90" s="9">
         <v>45292</v>
       </c>
       <c r="P90" s="4">
@@ -5993,7 +5998,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="7">
+      <c r="A91" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B91" s="0" t="s">
@@ -6035,7 +6040,7 @@
       <c r="N91" s="4">
         <v>0.5</v>
       </c>
-      <c r="O91" s="8">
+      <c r="O91" s="9">
         <v>45292</v>
       </c>
       <c r="P91" s="4">
@@ -6049,7 +6054,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="7">
+      <c r="A92" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B92" s="0" t="s">
@@ -6091,7 +6096,7 @@
       <c r="N92" s="4">
         <v>0.5</v>
       </c>
-      <c r="O92" s="8">
+      <c r="O92" s="9">
         <v>45292</v>
       </c>
       <c r="P92" s="4">
@@ -6105,7 +6110,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="7">
+      <c r="A93" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B93" s="0" t="s">
@@ -6147,7 +6152,7 @@
       <c r="N93" s="4">
         <v>2.43</v>
       </c>
-      <c r="O93" s="8">
+      <c r="O93" s="9">
         <v>45292</v>
       </c>
       <c r="P93" s="4">
@@ -6161,7 +6166,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="7">
+      <c r="A94" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B94" s="0" t="s">
@@ -6203,7 +6208,7 @@
       <c r="N94" s="4">
         <v>5.05</v>
       </c>
-      <c r="O94" s="8">
+      <c r="O94" s="9">
         <v>45292</v>
       </c>
       <c r="P94" s="4">
@@ -6217,7 +6222,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="7">
+      <c r="A95" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B95" s="0" t="s">
@@ -6259,7 +6264,7 @@
       <c r="N95" s="4">
         <v>0.5</v>
       </c>
-      <c r="O95" s="8">
+      <c r="O95" s="9">
         <v>45292</v>
       </c>
       <c r="P95" s="4">
@@ -6273,7 +6278,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="7">
+      <c r="A96" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B96" s="0" t="s">
@@ -6315,7 +6320,7 @@
       <c r="N96" s="4">
         <v>0.5</v>
       </c>
-      <c r="O96" s="8">
+      <c r="O96" s="9">
         <v>45292</v>
       </c>
       <c r="P96" s="4">
@@ -6329,7 +6334,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="7">
+      <c r="A97" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B97" s="0" t="s">
@@ -6371,7 +6376,7 @@
       <c r="N97" s="4">
         <v>0.5</v>
       </c>
-      <c r="O97" s="8">
+      <c r="O97" s="9">
         <v>45292</v>
       </c>
       <c r="P97" s="4">
@@ -6385,7 +6390,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="7">
+      <c r="A98" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B98" s="0" t="s">
@@ -6427,7 +6432,7 @@
       <c r="N98" s="4">
         <v>1.9</v>
       </c>
-      <c r="O98" s="8">
+      <c r="O98" s="9">
         <v>45292</v>
       </c>
       <c r="P98" s="4">
@@ -6441,7 +6446,7 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="7">
+      <c r="A99" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B99" s="0" t="s">
@@ -6483,7 +6488,7 @@
       <c r="N99" s="4">
         <v>2.43</v>
       </c>
-      <c r="O99" s="8">
+      <c r="O99" s="9">
         <v>45292</v>
       </c>
       <c r="P99" s="4">
@@ -6497,7 +6502,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="7">
+      <c r="A100" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B100" s="0" t="s">
@@ -6539,7 +6544,7 @@
       <c r="N100" s="4">
         <v>2.95</v>
       </c>
-      <c r="O100" s="8">
+      <c r="O100" s="9">
         <v>45292</v>
       </c>
       <c r="P100" s="4">
@@ -6553,7 +6558,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="7">
+      <c r="A101" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B101" s="0" t="s">
@@ -6595,7 +6600,7 @@
       <c r="N101" s="4">
         <v>2.43</v>
       </c>
-      <c r="O101" s="8">
+      <c r="O101" s="9">
         <v>45292</v>
       </c>
       <c r="P101" s="4">
@@ -6609,7 +6614,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="7">
+      <c r="A102" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B102" s="0" t="s">
@@ -6651,7 +6656,7 @@
       <c r="N102" s="4">
         <v>0.5</v>
       </c>
-      <c r="O102" s="8">
+      <c r="O102" s="9">
         <v>45292</v>
       </c>
       <c r="P102" s="4">
@@ -6665,7 +6670,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="7">
+      <c r="A103" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B103" s="0" t="s">
@@ -6707,7 +6712,7 @@
       <c r="N103" s="4">
         <v>2.95</v>
       </c>
-      <c r="O103" s="8">
+      <c r="O103" s="9">
         <v>45292</v>
       </c>
       <c r="P103" s="4">
@@ -6721,7 +6726,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="7">
+      <c r="A104" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B104" s="0" t="s">
@@ -6763,7 +6768,7 @@
       <c r="N104" s="4">
         <v>2.43</v>
       </c>
-      <c r="O104" s="8">
+      <c r="O104" s="9">
         <v>45292</v>
       </c>
       <c r="P104" s="4">
@@ -6777,7 +6782,7 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="7">
+      <c r="A105" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B105" s="0" t="s">
@@ -6819,7 +6824,7 @@
       <c r="N105" s="4">
         <v>1.9</v>
       </c>
-      <c r="O105" s="8">
+      <c r="O105" s="9">
         <v>45292</v>
       </c>
       <c r="P105" s="4">
@@ -6833,7 +6838,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="7">
+      <c r="A106" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B106" s="0" t="s">
@@ -6875,7 +6880,7 @@
       <c r="N106" s="4">
         <v>10.3</v>
       </c>
-      <c r="O106" s="8">
+      <c r="O106" s="9">
         <v>45292</v>
       </c>
       <c r="P106" s="4">
@@ -6889,7 +6894,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="7">
+      <c r="A107" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B107" s="0" t="s">
@@ -6931,7 +6936,7 @@
       <c r="N107" s="4">
         <v>1.2</v>
       </c>
-      <c r="O107" s="8">
+      <c r="O107" s="9">
         <v>45292</v>
       </c>
       <c r="P107" s="4">
@@ -6945,7 +6950,7 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="7">
+      <c r="A108" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B108" s="0" t="s">
@@ -6987,7 +6992,7 @@
       <c r="N108" s="4">
         <v>26.05</v>
       </c>
-      <c r="O108" s="8">
+      <c r="O108" s="9">
         <v>45292</v>
       </c>
       <c r="P108" s="4">
@@ -7001,7 +7006,7 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="7">
+      <c r="A109" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B109" s="0" t="s">
@@ -7043,7 +7048,7 @@
       <c r="N109" s="4">
         <v>10</v>
       </c>
-      <c r="O109" s="8">
+      <c r="O109" s="9">
         <v>45292</v>
       </c>
       <c r="P109" s="4">
@@ -7057,7 +7062,7 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="7">
+      <c r="A110" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B110" s="0" t="s">
@@ -7099,7 +7104,7 @@
       <c r="N110" s="4">
         <v>20.8</v>
       </c>
-      <c r="O110" s="8">
+      <c r="O110" s="9">
         <v>45292</v>
       </c>
       <c r="P110" s="4">
@@ -7113,7 +7118,7 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="7">
+      <c r="A111" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B111" s="0" t="s">
@@ -7155,7 +7160,7 @@
       <c r="N111" s="4">
         <v>2.95</v>
       </c>
-      <c r="O111" s="8">
+      <c r="O111" s="9">
         <v>45292</v>
       </c>
       <c r="P111" s="4">
@@ -7169,7 +7174,7 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="7">
+      <c r="A112" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B112" s="0" t="s">
@@ -7211,7 +7216,7 @@
       <c r="N112" s="4">
         <v>26.05</v>
       </c>
-      <c r="O112" s="8">
+      <c r="O112" s="9">
         <v>45292</v>
       </c>
       <c r="P112" s="4">
@@ -7225,7 +7230,7 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="7">
+      <c r="A113" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B113" s="0" t="s">
@@ -7267,7 +7272,7 @@
       <c r="N113" s="4">
         <v>10.3</v>
       </c>
-      <c r="O113" s="8">
+      <c r="O113" s="9">
         <v>45292</v>
       </c>
       <c r="P113" s="4">
@@ -7281,7 +7286,7 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="7">
+      <c r="A114" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B114" s="0" t="s">
@@ -7323,7 +7328,7 @@
       <c r="N114" s="4">
         <v>0.5</v>
       </c>
-      <c r="O114" s="8">
+      <c r="O114" s="9">
         <v>45292</v>
       </c>
       <c r="P114" s="4">
@@ -7337,7 +7342,7 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="7">
+      <c r="A115" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B115" s="0" t="s">
@@ -7379,7 +7384,7 @@
       <c r="N115" s="4">
         <v>5.05</v>
       </c>
-      <c r="O115" s="8">
+      <c r="O115" s="9">
         <v>45292</v>
       </c>
       <c r="P115" s="4">
@@ -7393,7 +7398,7 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="7">
+      <c r="A116" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B116" s="0" t="s">
@@ -7435,7 +7440,7 @@
       <c r="N116" s="4">
         <v>5.05</v>
       </c>
-      <c r="O116" s="8">
+      <c r="O116" s="9">
         <v>45292</v>
       </c>
       <c r="P116" s="4">
@@ -7449,7 +7454,7 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="7">
+      <c r="A117" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B117" s="0" t="s">
@@ -7491,7 +7496,7 @@
       <c r="N117" s="4">
         <v>20.8</v>
       </c>
-      <c r="O117" s="8">
+      <c r="O117" s="9">
         <v>45292</v>
       </c>
       <c r="P117" s="4">
@@ -7505,7 +7510,7 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="7">
+      <c r="A118" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B118" s="0" t="s">
@@ -7547,7 +7552,7 @@
       <c r="N118" s="4">
         <v>4</v>
       </c>
-      <c r="O118" s="8">
+      <c r="O118" s="9">
         <v>45292</v>
       </c>
       <c r="P118" s="4">
@@ -7561,7 +7566,7 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="7">
+      <c r="A119" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B119" s="0" t="s">
@@ -7603,7 +7608,7 @@
       <c r="N119" s="4">
         <v>10.3</v>
       </c>
-      <c r="O119" s="8">
+      <c r="O119" s="9">
         <v>45292</v>
       </c>
       <c r="P119" s="4">
@@ -7617,7 +7622,7 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="7">
+      <c r="A120" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B120" s="0" t="s">
@@ -7659,7 +7664,7 @@
       <c r="N120" s="4">
         <v>2.95</v>
       </c>
-      <c r="O120" s="8">
+      <c r="O120" s="9">
         <v>45292</v>
       </c>
       <c r="P120" s="4">
@@ -7673,7 +7678,7 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="7">
+      <c r="A121" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B121" s="0" t="s">
@@ -7715,7 +7720,7 @@
       <c r="N121" s="4">
         <v>5.05</v>
       </c>
-      <c r="O121" s="8">
+      <c r="O121" s="9">
         <v>45292</v>
       </c>
       <c r="P121" s="4">
@@ -7729,7 +7734,7 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="7">
+      <c r="A122" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B122" s="0" t="s">
@@ -7771,7 +7776,7 @@
       <c r="N122" s="4">
         <v>5.05</v>
       </c>
-      <c r="O122" s="8">
+      <c r="O122" s="9">
         <v>45292</v>
       </c>
       <c r="P122" s="4">
@@ -7785,7 +7790,7 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="7">
+      <c r="A123" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B123" s="0" t="s">
@@ -7827,7 +7832,7 @@
       <c r="N123" s="4">
         <v>2.95</v>
       </c>
-      <c r="O123" s="8">
+      <c r="O123" s="9">
         <v>45292</v>
       </c>
       <c r="P123" s="4">
@@ -7841,7 +7846,7 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="7">
+      <c r="A124" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B124" s="0" t="s">
@@ -7883,7 +7888,7 @@
       <c r="N124" s="4">
         <v>14.5</v>
       </c>
-      <c r="O124" s="8">
+      <c r="O124" s="9">
         <v>45292</v>
       </c>
       <c r="P124" s="4">
@@ -7897,7 +7902,7 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="7">
+      <c r="A125" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B125" s="0" t="s">
@@ -7939,7 +7944,7 @@
       <c r="N125" s="4">
         <v>4</v>
       </c>
-      <c r="O125" s="8">
+      <c r="O125" s="9">
         <v>45292</v>
       </c>
       <c r="P125" s="4">
@@ -7953,7 +7958,7 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="7">
+      <c r="A126" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B126" s="0" t="s">
@@ -7995,7 +8000,7 @@
       <c r="N126" s="4">
         <v>5.05</v>
       </c>
-      <c r="O126" s="8">
+      <c r="O126" s="9">
         <v>45292</v>
       </c>
       <c r="P126" s="4">
@@ -8009,7 +8014,7 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="7">
+      <c r="A127" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B127" s="0" t="s">
@@ -8051,7 +8056,7 @@
       <c r="N127" s="4">
         <v>1</v>
       </c>
-      <c r="O127" s="8">
+      <c r="O127" s="9">
         <v>45292</v>
       </c>
       <c r="P127" s="4">
@@ -8065,7 +8070,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="7">
+      <c r="A128" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B128" s="0" t="s">
@@ -8107,7 +8112,7 @@
       <c r="N128" s="4">
         <v>0.8</v>
       </c>
-      <c r="O128" s="8">
+      <c r="O128" s="9">
         <v>45292</v>
       </c>
       <c r="P128" s="4">
@@ -8121,7 +8126,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="7">
+      <c r="A129" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B129" s="0" t="s">
@@ -8163,7 +8168,7 @@
       <c r="N129" s="4">
         <v>0.5</v>
       </c>
-      <c r="O129" s="8">
+      <c r="O129" s="9">
         <v>45292</v>
       </c>
       <c r="P129" s="4">
@@ -8177,7 +8182,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="7">
+      <c r="A130" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B130" s="0" t="s">
@@ -8219,7 +8224,7 @@
       <c r="N130" s="4">
         <v>0.5</v>
       </c>
-      <c r="O130" s="8">
+      <c r="O130" s="9">
         <v>45292</v>
       </c>
       <c r="P130" s="4">
@@ -8233,7 +8238,7 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="7">
+      <c r="A131" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B131" s="0" t="s">
@@ -8275,7 +8280,7 @@
       <c r="N131" s="4">
         <v>5.05</v>
       </c>
-      <c r="O131" s="8">
+      <c r="O131" s="9">
         <v>45292</v>
       </c>
       <c r="P131" s="4">
@@ -8289,7 +8294,7 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="7">
+      <c r="A132" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B132" s="0" t="s">
@@ -8331,7 +8336,7 @@
       <c r="N132" s="4">
         <v>1.9</v>
       </c>
-      <c r="O132" s="8">
+      <c r="O132" s="9">
         <v>45292</v>
       </c>
       <c r="P132" s="4">
@@ -8345,7 +8350,7 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="7">
+      <c r="A133" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B133" s="0" t="s">
@@ -8387,7 +8392,7 @@
       <c r="N133" s="4">
         <v>1.9</v>
       </c>
-      <c r="O133" s="8">
+      <c r="O133" s="9">
         <v>45292</v>
       </c>
       <c r="P133" s="4">
@@ -8401,7 +8406,7 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="7">
+      <c r="A134" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B134" s="0" t="s">
@@ -8443,7 +8448,7 @@
       <c r="N134" s="4">
         <v>0.8</v>
       </c>
-      <c r="O134" s="8">
+      <c r="O134" s="9">
         <v>45292</v>
       </c>
       <c r="P134" s="4">
@@ -8457,7 +8462,7 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="7">
+      <c r="A135" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B135" s="0" t="s">
@@ -8499,7 +8504,7 @@
       <c r="N135" s="4">
         <v>1.9</v>
       </c>
-      <c r="O135" s="8">
+      <c r="O135" s="9">
         <v>45292</v>
       </c>
       <c r="P135" s="4">
@@ -8513,7 +8518,7 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="7">
+      <c r="A136" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B136" s="0" t="s">
@@ -8555,7 +8560,7 @@
       <c r="N136" s="4">
         <v>4</v>
       </c>
-      <c r="O136" s="8">
+      <c r="O136" s="9">
         <v>45292</v>
       </c>
       <c r="P136" s="4">
@@ -8569,7 +8574,7 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="7">
+      <c r="A137" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B137" s="0" t="s">
@@ -8611,7 +8616,7 @@
       <c r="N137" s="4">
         <v>5.05</v>
       </c>
-      <c r="O137" s="8">
+      <c r="O137" s="9">
         <v>45292</v>
       </c>
       <c r="P137" s="4">
@@ -8625,7 +8630,7 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="7">
+      <c r="A138" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B138" s="0" t="s">
@@ -8667,7 +8672,7 @@
       <c r="N138" s="4">
         <v>10.3</v>
       </c>
-      <c r="O138" s="8">
+      <c r="O138" s="9">
         <v>45292</v>
       </c>
       <c r="P138" s="4">
@@ -8681,7 +8686,7 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="7">
+      <c r="A139" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B139" s="0" t="s">
@@ -8723,7 +8728,7 @@
       <c r="N139" s="4">
         <v>20.8</v>
       </c>
-      <c r="O139" s="8">
+      <c r="O139" s="9">
         <v>45292</v>
       </c>
       <c r="P139" s="4">
@@ -8737,7 +8742,7 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="7">
+      <c r="A140" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B140" s="0" t="s">
@@ -8779,7 +8784,7 @@
       <c r="N140" s="4">
         <v>5.05</v>
       </c>
-      <c r="O140" s="8">
+      <c r="O140" s="9">
         <v>45292</v>
       </c>
       <c r="P140" s="4">
@@ -8793,7 +8798,7 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="7">
+      <c r="A141" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B141" s="0" t="s">
@@ -8835,7 +8840,7 @@
       <c r="N141" s="4">
         <v>10</v>
       </c>
-      <c r="O141" s="8">
+      <c r="O141" s="9">
         <v>45292</v>
       </c>
       <c r="P141" s="4">
@@ -8849,7 +8854,7 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="7">
+      <c r="A142" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B142" s="0" t="s">
@@ -8891,7 +8896,7 @@
       <c r="N142" s="4">
         <v>0.5</v>
       </c>
-      <c r="O142" s="8">
+      <c r="O142" s="9">
         <v>45292</v>
       </c>
       <c r="P142" s="4">
@@ -8905,7 +8910,7 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="7">
+      <c r="A143" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B143" s="0" t="s">
@@ -8947,7 +8952,7 @@
       <c r="N143" s="4">
         <v>0.5</v>
       </c>
-      <c r="O143" s="8">
+      <c r="O143" s="9">
         <v>45292</v>
       </c>
       <c r="P143" s="4">
@@ -8961,7 +8966,7 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="7">
+      <c r="A144" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B144" s="0" t="s">
@@ -9003,7 +9008,7 @@
       <c r="N144" s="4">
         <v>2.43</v>
       </c>
-      <c r="O144" s="8">
+      <c r="O144" s="9">
         <v>45292</v>
       </c>
       <c r="P144" s="4">
@@ -9017,7 +9022,7 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="7">
+      <c r="A145" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B145" s="0" t="s">
@@ -9059,7 +9064,7 @@
       <c r="N145" s="4">
         <v>8.8</v>
       </c>
-      <c r="O145" s="8">
+      <c r="O145" s="9">
         <v>45292</v>
       </c>
       <c r="P145" s="4">
@@ -9073,7 +9078,7 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="7">
+      <c r="A146" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B146" s="0" t="s">
@@ -9115,7 +9120,7 @@
       <c r="N146" s="4">
         <v>10</v>
       </c>
-      <c r="O146" s="8">
+      <c r="O146" s="9">
         <v>45292</v>
       </c>
       <c r="P146" s="4">
@@ -9129,7 +9134,7 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="7">
+      <c r="A147" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B147" s="0" t="s">
@@ -9171,7 +9176,7 @@
       <c r="N147" s="4">
         <v>5.05</v>
       </c>
-      <c r="O147" s="8">
+      <c r="O147" s="9">
         <v>45292</v>
       </c>
       <c r="P147" s="4">
@@ -9185,7 +9190,7 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="7">
+      <c r="A148" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B148" s="0" t="s">
@@ -9227,7 +9232,7 @@
       <c r="N148" s="4">
         <v>5.4</v>
       </c>
-      <c r="O148" s="8">
+      <c r="O148" s="9">
         <v>45292</v>
       </c>
       <c r="P148" s="4">
@@ -9241,7 +9246,7 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="7">
+      <c r="A149" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B149" s="0" t="s">
@@ -9283,7 +9288,7 @@
       <c r="N149" s="4">
         <v>0.5</v>
       </c>
-      <c r="O149" s="8">
+      <c r="O149" s="9">
         <v>45292</v>
       </c>
       <c r="P149" s="4">
@@ -9297,7 +9302,7 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="7">
+      <c r="A150" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B150" s="0" t="s">
@@ -9339,7 +9344,7 @@
       <c r="N150" s="4">
         <v>0.5</v>
       </c>
-      <c r="O150" s="8">
+      <c r="O150" s="9">
         <v>45292</v>
       </c>
       <c r="P150" s="4">
@@ -9353,7 +9358,7 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="7">
+      <c r="A151" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B151" s="0" t="s">
@@ -9395,7 +9400,7 @@
       <c r="N151" s="4">
         <v>7</v>
       </c>
-      <c r="O151" s="8">
+      <c r="O151" s="9">
         <v>45292</v>
       </c>
       <c r="P151" s="4">
@@ -9409,7 +9414,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="7">
+      <c r="A152" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B152" s="0" t="s">
@@ -9451,7 +9456,7 @@
       <c r="N152" s="4">
         <v>0.4</v>
       </c>
-      <c r="O152" s="8">
+      <c r="O152" s="9">
         <v>45292</v>
       </c>
       <c r="P152" s="4">
@@ -9465,7 +9470,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="7">
+      <c r="A153" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B153" s="0" t="s">
@@ -9507,7 +9512,7 @@
       <c r="N153" s="4">
         <v>2</v>
       </c>
-      <c r="O153" s="8">
+      <c r="O153" s="9">
         <v>45292</v>
       </c>
       <c r="P153" s="4">
@@ -9521,7 +9526,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="7">
+      <c r="A154" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B154" s="0" t="s">
@@ -9563,7 +9568,7 @@
       <c r="N154" s="4">
         <v>5.05</v>
       </c>
-      <c r="O154" s="8">
+      <c r="O154" s="9">
         <v>45292</v>
       </c>
       <c r="P154" s="4">
@@ -9577,7 +9582,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="7">
+      <c r="A155" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B155" s="0" t="s">
@@ -9619,7 +9624,7 @@
       <c r="N155" s="4">
         <v>8</v>
       </c>
-      <c r="O155" s="8">
+      <c r="O155" s="9">
         <v>45292</v>
       </c>
       <c r="P155" s="4">
@@ -9633,7 +9638,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="7">
+      <c r="A156" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B156" s="0" t="s">
@@ -9675,7 +9680,7 @@
       <c r="N156" s="4">
         <v>1.2</v>
       </c>
-      <c r="O156" s="8">
+      <c r="O156" s="9">
         <v>45292</v>
       </c>
       <c r="P156" s="4">
@@ -9689,7 +9694,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="7">
+      <c r="A157" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B157" s="0" t="s">
@@ -9731,7 +9736,7 @@
       <c r="N157" s="4">
         <v>2</v>
       </c>
-      <c r="O157" s="8">
+      <c r="O157" s="9">
         <v>45292</v>
       </c>
       <c r="P157" s="4">
@@ -9745,7 +9750,7 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="7">
+      <c r="A158" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B158" s="0" t="s">
@@ -9787,7 +9792,7 @@
       <c r="N158" s="4">
         <v>12.4</v>
       </c>
-      <c r="O158" s="8">
+      <c r="O158" s="9">
         <v>45292</v>
       </c>
       <c r="P158" s="4">
@@ -9801,7 +9806,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="7">
+      <c r="A159" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B159" s="0" t="s">
@@ -9843,7 +9848,7 @@
       <c r="N159" s="4">
         <v>2.43</v>
       </c>
-      <c r="O159" s="8">
+      <c r="O159" s="9">
         <v>45292</v>
       </c>
       <c r="P159" s="4">
@@ -9857,7 +9862,7 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="7">
+      <c r="A160" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B160" s="0" t="s">
@@ -9899,7 +9904,7 @@
       <c r="N160" s="4">
         <v>10</v>
       </c>
-      <c r="O160" s="8">
+      <c r="O160" s="9">
         <v>45292</v>
       </c>
       <c r="P160" s="4">
@@ -9913,7 +9918,7 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="7">
+      <c r="A161" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B161" s="0" t="s">
@@ -9955,7 +9960,7 @@
       <c r="N161" s="4">
         <v>0.8</v>
       </c>
-      <c r="O161" s="8">
+      <c r="O161" s="9">
         <v>45292</v>
       </c>
       <c r="P161" s="4">
@@ -9969,7 +9974,7 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="7">
+      <c r="A162" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B162" s="0" t="s">
@@ -10011,7 +10016,7 @@
       <c r="N162" s="4">
         <v>2</v>
       </c>
-      <c r="O162" s="8">
+      <c r="O162" s="9">
         <v>45292</v>
       </c>
       <c r="P162" s="4">
@@ -10025,7 +10030,7 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="7">
+      <c r="A163" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B163" s="0" t="s">
@@ -10067,7 +10072,7 @@
       <c r="N163" s="4">
         <v>4</v>
       </c>
-      <c r="O163" s="8">
+      <c r="O163" s="9">
         <v>45292</v>
       </c>
       <c r="P163" s="4">
@@ -10081,7 +10086,7 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="7">
+      <c r="A164" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B164" s="0" t="s">
@@ -10123,7 +10128,7 @@
       <c r="N164" s="4">
         <v>1.8</v>
       </c>
-      <c r="O164" s="8">
+      <c r="O164" s="9">
         <v>45292</v>
       </c>
       <c r="P164" s="4">
@@ -10137,7 +10142,7 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="7">
+      <c r="A165" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B165" s="0" t="s">
@@ -10179,7 +10184,7 @@
       <c r="N165" s="4">
         <v>5.05</v>
       </c>
-      <c r="O165" s="8">
+      <c r="O165" s="9">
         <v>45292</v>
       </c>
       <c r="P165" s="4">
@@ -10193,7 +10198,7 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="7">
+      <c r="A166" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B166" s="0" t="s">
@@ -10235,7 +10240,7 @@
       <c r="N166" s="4">
         <v>7.68</v>
       </c>
-      <c r="O166" s="8">
+      <c r="O166" s="9">
         <v>45292</v>
       </c>
       <c r="P166" s="4">
@@ -10249,7 +10254,7 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="7">
+      <c r="A167" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B167" s="0" t="s">
@@ -10291,7 +10296,7 @@
       <c r="N167" s="4">
         <v>0.48</v>
       </c>
-      <c r="O167" s="8">
+      <c r="O167" s="9">
         <v>45292</v>
       </c>
       <c r="P167" s="4">
@@ -10305,7 +10310,7 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="7">
+      <c r="A168" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B168" s="0" t="s">
@@ -10347,7 +10352,7 @@
       <c r="N168" s="4">
         <v>10</v>
       </c>
-      <c r="O168" s="8">
+      <c r="O168" s="9">
         <v>45292</v>
       </c>
       <c r="P168" s="4">
@@ -10361,7 +10366,7 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="7">
+      <c r="A169" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B169" s="0" t="s">
@@ -10403,7 +10408,7 @@
       <c r="N169" s="4">
         <v>7.6</v>
       </c>
-      <c r="O169" s="8">
+      <c r="O169" s="9">
         <v>45292</v>
       </c>
       <c r="P169" s="4">
@@ -10417,7 +10422,7 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="7">
+      <c r="A170" s="8">
         <v>45292.40138888889</v>
       </c>
       <c r="B170" s="0" t="s">
@@ -10459,7 +10464,7 @@
       <c r="N170" s="4">
         <v>2</v>
       </c>
-      <c r="O170" s="8">
+      <c r="O170" s="9">
         <v>45292</v>
       </c>
       <c r="P170" s="4">

--- a/EPAYGOLF/wwwroot/Document/SalesReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/SalesReporting.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>28-Jul-2023 To 24-Jul-2024</t>
+    <t>01-Jul-2023 To 21-Jul-2024</t>
   </si>
   <si>
     <t xml:space="preserve">GGC TOTAL NET AMOUNT: </t>

--- a/EPAYGOLF/wwwroot/Document/SalesReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/SalesReporting.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Sales Report</t>
   </si>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Jul-2023 To 01-Sep-2024</t>
+    <t>01-Aug-2023 To 31-Aug-2023</t>
   </si>
   <si>
     <t xml:space="preserve">GGC TOTAL NET AMOUNT: </t>
@@ -95,43 +95,40 @@
     <t>Breakage</t>
   </si>
   <si>
-    <t>The Golf Gift Card Variable Digital</t>
-  </si>
-  <si>
-    <t>EP0130032000080481</t>
-  </si>
-  <si>
-    <t>1298080143</t>
+    <t>Golf Prize Vouchers Gift Card Variable Digital</t>
+  </si>
+  <si>
+    <t>EP0130032000034796</t>
+  </si>
+  <si>
+    <t>1116299488</t>
   </si>
   <si>
     <t>Golf Gift Card</t>
   </si>
   <si>
-    <t>EP0130032000080126</t>
-  </si>
-  <si>
-    <t>1291945234</t>
-  </si>
-  <si>
-    <t>EP0130032000080093</t>
-  </si>
-  <si>
-    <t>1293084431</t>
-  </si>
-  <si>
-    <t>EP0130032000079999</t>
-  </si>
-  <si>
-    <t>1292790213</t>
-  </si>
-  <si>
-    <t>Golf Prize Vouchers Gift Card Variable Digital</t>
-  </si>
-  <si>
-    <t>EP0130032000034796</t>
-  </si>
-  <si>
-    <t>1116299488</t>
+    <t>EP0130032000034694</t>
+  </si>
+  <si>
+    <t>1114571635</t>
+  </si>
+  <si>
+    <t>EP0140032000033542</t>
+  </si>
+  <si>
+    <t>1114570428</t>
+  </si>
+  <si>
+    <t>EP0130032000033727</t>
+  </si>
+  <si>
+    <t>1111757488</t>
+  </si>
+  <si>
+    <t>EP0130032000033293</t>
+  </si>
+  <si>
+    <t>1105915974</t>
   </si>
   <si>
     <t>Totals</t>
@@ -254,7 +251,7 @@
     <col min="2" max="2" width="39.916595458984375" customWidth="1"/>
     <col min="3" max="3" width="20.365819931030273" customWidth="1"/>
     <col min="4" max="4" width="11.634980201721191" customWidth="1"/>
-    <col min="5" max="5" width="12.061598777770996" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="10.311413764953613" customWidth="1"/>
     <col min="8" max="8" width="13.058342933654785" customWidth="1"/>
@@ -304,7 +301,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>27.35</v>
+        <v>32.07</v>
       </c>
     </row>
     <row r="6">
@@ -373,7 +370,7 @@
     </row>
     <row r="8">
       <c r="A8" s="8">
-        <v>45498.85686342593</v>
+        <v>45169.35972222222</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>27</v>
@@ -385,7 +382,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="4">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F8" s="0">
         <v>1</v>
@@ -400,36 +397,36 @@
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>6.5</v>
+        <v>14.3</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.5</v>
+        <v>-1.1</v>
       </c>
       <c r="L8" s="4">
-        <v>-0.75</v>
+        <v>-1.65</v>
       </c>
       <c r="M8" s="4">
         <v>-0.2</v>
       </c>
       <c r="N8" s="4">
-        <v>5.05</v>
+        <v>11.35</v>
       </c>
       <c r="O8" s="9">
-        <v>45498.85686342593</v>
+        <v>45169</v>
       </c>
       <c r="P8" s="4">
-        <v>0</v>
+        <v>-110</v>
       </c>
       <c r="Q8" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8">
-        <v>45495.69168981481</v>
+        <v>45166.75555555556</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>27</v>
@@ -441,7 +438,7 @@
         <v>32</v>
       </c>
       <c r="E9" s="4">
-        <v>-90</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0">
         <v>1</v>
@@ -456,36 +453,36 @@
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>-11.7</v>
+        <v>3.9</v>
       </c>
       <c r="K9" s="0">
-        <v>0.9</v>
+        <v>-0.3</v>
       </c>
       <c r="L9" s="4">
-        <v>1.35</v>
+        <v>-0.45</v>
       </c>
       <c r="M9" s="4">
         <v>-0.2</v>
       </c>
       <c r="N9" s="4">
-        <v>-9.65</v>
+        <v>2.95</v>
       </c>
       <c r="O9" s="9">
-        <v>45495.69168981481</v>
+        <v>45166</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
       </c>
       <c r="Q9" s="4">
-        <v>-90</v>
+        <v>30</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8">
-        <v>45495.45894675926</v>
+        <v>45166.73819444444</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
@@ -497,7 +494,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F10" s="0">
         <v>1</v>
@@ -512,36 +509,36 @@
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="K10" s="0">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="L10" s="4">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="M10" s="4">
         <v>-0.2</v>
       </c>
       <c r="N10" s="4">
-        <v>10.3</v>
+        <v>5.05</v>
       </c>
       <c r="O10" s="9">
-        <v>45495.45894675926</v>
+        <v>45166</v>
       </c>
       <c r="P10" s="4">
         <v>0</v>
       </c>
       <c r="Q10" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8">
-        <v>45494.68325231481</v>
+        <v>45153.89791666667</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>27</v>
@@ -553,7 +550,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="4">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F11" s="0">
         <v>1</v>
@@ -568,48 +565,48 @@
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="K11" s="0">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="L11" s="4">
-        <v>-1.5</v>
+        <v>-0.375</v>
       </c>
       <c r="M11" s="4">
         <v>-0.2</v>
       </c>
       <c r="N11" s="4">
-        <v>10.3</v>
+        <v>2.42</v>
       </c>
       <c r="O11" s="9">
-        <v>45494.68325231481</v>
+        <v>45153</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
       </c>
       <c r="Q11" s="4">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8">
-        <v>45169.35972222222</v>
+        <v>45145.489583333336</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="D12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="E12" s="4">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="F12" s="0">
         <v>1</v>
@@ -624,39 +621,39 @@
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>14.3</v>
+        <v>13</v>
       </c>
       <c r="K12" s="0">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="L12" s="4">
-        <v>-1.65</v>
+        <v>-1.5</v>
       </c>
       <c r="M12" s="4">
         <v>-0.2</v>
       </c>
       <c r="N12" s="4">
-        <v>11.35</v>
+        <v>10.3</v>
       </c>
       <c r="O12" s="9">
-        <v>45169</v>
+        <v>45145</v>
       </c>
       <c r="P12" s="4">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="4">
-        <v>220</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -665,28 +662,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>35.1</v>
+        <v>40.95</v>
       </c>
       <c r="K13" s="5">
-        <v>-2.7</v>
+        <v>-3.15</v>
       </c>
       <c r="L13" s="5">
-        <v>-4.05</v>
+        <v>-4.725</v>
       </c>
       <c r="M13" s="5">
         <v>-1</v>
       </c>
       <c r="N13" s="5">
-        <v>27.35</v>
+        <v>32.07</v>
       </c>
       <c r="P13" s="5">
         <v>-110</v>
       </c>
       <c r="Q13" s="5">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="R13" s="5">
-        <v>220</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14"/>

--- a/EPAYGOLF/wwwroot/Document/SalesReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/SalesReporting.xlsx
@@ -7,12 +7,12 @@
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Sales Report</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t>0 | All Stores</t>
+    <t xml:space="preserve">GZQW2Y8 | </t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Aug-2023 To 31-Aug-2023</t>
+    <t>01-Jul-2024 To 02-Feb-2025</t>
   </si>
   <si>
     <t xml:space="preserve">GGC TOTAL NET AMOUNT: </t>
@@ -95,40 +95,43 @@
     <t>Breakage</t>
   </si>
   <si>
-    <t>Golf Prize Vouchers Gift Card Variable Digital</t>
-  </si>
-  <si>
-    <t>EP0130032000034796</t>
-  </si>
-  <si>
-    <t>1116299488</t>
-  </si>
-  <si>
-    <t>Golf Gift Card</t>
-  </si>
-  <si>
-    <t>EP0130032000034694</t>
-  </si>
-  <si>
-    <t>1114571635</t>
-  </si>
-  <si>
-    <t>EP0140032000033542</t>
-  </si>
-  <si>
-    <t>1114570428</t>
-  </si>
-  <si>
-    <t>EP0130032000033727</t>
-  </si>
-  <si>
-    <t>1111757488</t>
-  </si>
-  <si>
-    <t>EP0130032000033293</t>
-  </si>
-  <si>
-    <t>1105915974</t>
+    <t>The Golf Gift Card Variable Digital</t>
+  </si>
+  <si>
+    <t>EP0130032000173970</t>
+  </si>
+  <si>
+    <t>1435979445</t>
+  </si>
+  <si>
+    <t>GZQW2Y8</t>
+  </si>
+  <si>
+    <t>WeGift B2B Agency</t>
+  </si>
+  <si>
+    <t>EP0130032000173432</t>
+  </si>
+  <si>
+    <t>1435938493</t>
+  </si>
+  <si>
+    <t>EP0130032000173099</t>
+  </si>
+  <si>
+    <t>1435618965</t>
+  </si>
+  <si>
+    <t>EP0130032000173074</t>
+  </si>
+  <si>
+    <t>1435609037</t>
+  </si>
+  <si>
+    <t>EP0130032000172553</t>
+  </si>
+  <si>
+    <t>1435536540</t>
   </si>
   <si>
     <t>Totals</t>
@@ -248,13 +251,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.793149948120117" customWidth="1"/>
-    <col min="2" max="2" width="39.916595458984375" customWidth="1"/>
+    <col min="2" max="2" width="30.187246322631836" customWidth="1"/>
     <col min="3" max="3" width="20.365819931030273" customWidth="1"/>
     <col min="4" max="4" width="11.634980201721191" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="10.311413764953613" customWidth="1"/>
-    <col min="8" max="8" width="13.058342933654785" customWidth="1"/>
+    <col min="8" max="8" width="17.710966110229492" customWidth="1"/>
     <col min="9" max="9" width="13.544299125671387" customWidth="1"/>
     <col min="10" max="10" width="18.38544464111328" customWidth="1"/>
     <col min="11" max="11" width="16.099916458129883" customWidth="1"/>
@@ -301,7 +304,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>32.07</v>
+        <v>26.65</v>
       </c>
     </row>
     <row r="6">
@@ -370,7 +373,7 @@
     </row>
     <row r="8">
       <c r="A8" s="8">
-        <v>45169.35972222222</v>
+        <v>45682.42497685185</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>27</v>
@@ -382,278 +385,278 @@
         <v>29</v>
       </c>
       <c r="E8" s="4">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="F8" s="0">
         <v>1</v>
       </c>
-      <c r="G8" s="0">
-        <v>1</v>
+      <c r="G8" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="J8" s="4">
-        <v>14.3</v>
+        <v>6.5</v>
       </c>
       <c r="K8" s="0">
-        <v>-1.1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>-1.65</v>
+        <v>0</v>
       </c>
       <c r="M8" s="4">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>11.35</v>
+        <v>6.5</v>
       </c>
       <c r="O8" s="9">
-        <v>45169</v>
+        <v>45682.42497685185</v>
       </c>
       <c r="P8" s="4">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R8" s="4">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8">
-        <v>45166.75555555556</v>
+        <v>45681.715208333335</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F9" s="0">
         <v>1</v>
       </c>
-      <c r="G9" s="0">
-        <v>1</v>
+      <c r="G9" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="J9" s="4">
-        <v>3.9</v>
+        <v>5.2</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="L9" s="4">
-        <v>-0.45</v>
+        <v>0</v>
       </c>
       <c r="M9" s="4">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>2.95</v>
+        <v>5.2</v>
       </c>
       <c r="O9" s="9">
-        <v>45166</v>
+        <v>45681.715208333335</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
       </c>
       <c r="Q9" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="R9" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8">
-        <v>45166.73819444444</v>
+        <v>45681.42451388889</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F10" s="0">
         <v>1</v>
       </c>
-      <c r="G10" s="0">
-        <v>1</v>
+      <c r="G10" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="4">
         <v>0</v>
       </c>
       <c r="J10" s="4">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="K10" s="0">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="L10" s="4">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4">
-        <v>5.05</v>
+        <v>3.25</v>
       </c>
       <c r="O10" s="9">
-        <v>45166</v>
+        <v>45681.42451388889</v>
       </c>
       <c r="P10" s="4">
         <v>0</v>
       </c>
       <c r="Q10" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="R10" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8">
-        <v>45153.89791666667</v>
+        <v>45681.36324074074</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F11" s="0">
         <v>1</v>
       </c>
-      <c r="G11" s="0">
-        <v>1</v>
+      <c r="G11" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
       </c>
       <c r="J11" s="4">
-        <v>3.25</v>
+        <v>5.2</v>
       </c>
       <c r="K11" s="0">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>-0.375</v>
+        <v>0</v>
       </c>
       <c r="M11" s="4">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>2.42</v>
+        <v>5.2</v>
       </c>
       <c r="O11" s="9">
-        <v>45153</v>
+        <v>45681.36324074074</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
       </c>
       <c r="Q11" s="4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="R11" s="4">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8">
-        <v>45145.489583333336</v>
+        <v>45680.65782407407</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F12" s="0">
         <v>1</v>
       </c>
-      <c r="G12" s="0">
-        <v>1</v>
+      <c r="G12" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I12" s="4">
         <v>0</v>
       </c>
       <c r="J12" s="4">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="K12" s="0">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="M12" s="4">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="N12" s="4">
-        <v>10.3</v>
+        <v>6.5</v>
       </c>
       <c r="O12" s="9">
-        <v>45145</v>
+        <v>45680.65782407407</v>
       </c>
       <c r="P12" s="4">
         <v>0</v>
       </c>
       <c r="Q12" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R12" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" s="5">
-        <v>315</v>
+        <v>205</v>
       </c>
       <c r="F13" s="1">
         <v>5</v>
@@ -662,28 +665,28 @@
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <v>40.95</v>
+        <v>26.65</v>
       </c>
       <c r="K13" s="5">
-        <v>-3.15</v>
+        <v>0</v>
       </c>
       <c r="L13" s="5">
-        <v>-4.725</v>
+        <v>0</v>
       </c>
       <c r="M13" s="5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="5">
-        <v>32.07</v>
+        <v>26.65</v>
       </c>
       <c r="P13" s="5">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="5">
         <v>205</v>
       </c>
       <c r="R13" s="5">
-        <v>425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14"/>

--- a/EPAYGOLF/wwwroot/Document/SalesReporting.xlsx
+++ b/EPAYGOLF/wwwroot/Document/SalesReporting.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t>Sales Report</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">STORE NAME: </t>
   </si>
   <si>
-    <t xml:space="preserve">GZQW2Y8 | </t>
+    <t>0 | All Stores</t>
   </si>
   <si>
     <t xml:space="preserve">PRODUCT NAME: </t>
@@ -32,7 +32,7 @@
     <t xml:space="preserve">REPORTING PERIOD: </t>
   </si>
   <si>
-    <t>01-Jul-2024 To 02-Feb-2025</t>
+    <t>01-Jul-2025 To 20-Jul-2025</t>
   </si>
   <si>
     <t xml:space="preserve">GGC TOTAL NET AMOUNT: </t>
@@ -98,10 +98,82 @@
     <t>The Golf Gift Card Variable Digital</t>
   </si>
   <si>
-    <t>EP0130032000173970</t>
-  </si>
-  <si>
-    <t>1435979445</t>
+    <t>EP0130032000281415</t>
+  </si>
+  <si>
+    <t>1532128739</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>Cadeau Conception B.V</t>
+  </si>
+  <si>
+    <t>EP0140032000155414</t>
+  </si>
+  <si>
+    <t>1532015883</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>BLOCKv</t>
+  </si>
+  <si>
+    <t>EP0140032000155174</t>
+  </si>
+  <si>
+    <t>1531979187</t>
+  </si>
+  <si>
+    <t>EP0140032000155140</t>
+  </si>
+  <si>
+    <t>1531976951</t>
+  </si>
+  <si>
+    <t>EP0130032000280456</t>
+  </si>
+  <si>
+    <t>1531971278</t>
+  </si>
+  <si>
+    <t>EP0130032000280410</t>
+  </si>
+  <si>
+    <t>1531967494</t>
+  </si>
+  <si>
+    <t>EP0130032000280343</t>
+  </si>
+  <si>
+    <t>1531962359</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Golf Gift Card</t>
+  </si>
+  <si>
+    <t>EP0140032000154797</t>
+  </si>
+  <si>
+    <t>1531910340</t>
+  </si>
+  <si>
+    <t>EP0140032000154717</t>
+  </si>
+  <si>
+    <t>1531637584</t>
+  </si>
+  <si>
+    <t>EP0130032000279381</t>
+  </si>
+  <si>
+    <t>1531356150</t>
   </si>
   <si>
     <t>GZQW2Y8</t>
@@ -110,28 +182,208 @@
     <t>WeGift B2B Agency</t>
   </si>
   <si>
-    <t>EP0130032000173432</t>
-  </si>
-  <si>
-    <t>1435938493</t>
-  </si>
-  <si>
-    <t>EP0130032000173099</t>
-  </si>
-  <si>
-    <t>1435618965</t>
-  </si>
-  <si>
-    <t>EP0130032000173074</t>
-  </si>
-  <si>
-    <t>1435609037</t>
-  </si>
-  <si>
-    <t>EP0130032000172553</t>
-  </si>
-  <si>
-    <t>1435536540</t>
+    <t>GCMV THE GOLF GIFT CARD 10-250GBP</t>
+  </si>
+  <si>
+    <t>6030000579406496274791920250717153022</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Blackhawk (UK) Amazon</t>
+  </si>
+  <si>
+    <t>EP0140032000154602</t>
+  </si>
+  <si>
+    <t>1530808422</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Prezzee</t>
+  </si>
+  <si>
+    <t>EP0130032000279187</t>
+  </si>
+  <si>
+    <t>1530689815</t>
+  </si>
+  <si>
+    <t>EP0130032000279117</t>
+  </si>
+  <si>
+    <t>1530517736</t>
+  </si>
+  <si>
+    <t>EP0130032000279052</t>
+  </si>
+  <si>
+    <t>1530419236</t>
+  </si>
+  <si>
+    <t>6030000579400953286579920250717095115</t>
+  </si>
+  <si>
+    <t>EP0130032000278978</t>
+  </si>
+  <si>
+    <t>1530304509</t>
+  </si>
+  <si>
+    <t>EP0140032000154474</t>
+  </si>
+  <si>
+    <t>1530304495</t>
+  </si>
+  <si>
+    <t>EP0130032000278977</t>
+  </si>
+  <si>
+    <t>1530304468</t>
+  </si>
+  <si>
+    <t>EP0140032000154464</t>
+  </si>
+  <si>
+    <t>1530298536</t>
+  </si>
+  <si>
+    <t>EP0140032000154423</t>
+  </si>
+  <si>
+    <t>1530296626</t>
+  </si>
+  <si>
+    <t>EP0140032000154298</t>
+  </si>
+  <si>
+    <t>1530267232</t>
+  </si>
+  <si>
+    <t>6030000579407247182731020250716061047</t>
+  </si>
+  <si>
+    <t>EP0130032000277915</t>
+  </si>
+  <si>
+    <t>1529769477</t>
+  </si>
+  <si>
+    <t>EP0130032000277912</t>
+  </si>
+  <si>
+    <t>1529769344</t>
+  </si>
+  <si>
+    <t>EP0130032000277764</t>
+  </si>
+  <si>
+    <t>1529618801</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Reward Gateway</t>
+  </si>
+  <si>
+    <t>EP0140032000154035</t>
+  </si>
+  <si>
+    <t>1529450777</t>
+  </si>
+  <si>
+    <t>EP0140032000153988</t>
+  </si>
+  <si>
+    <t>1528622612</t>
+  </si>
+  <si>
+    <t>EP0130032000277515</t>
+  </si>
+  <si>
+    <t>1528601758</t>
+  </si>
+  <si>
+    <t>EP0130032000277371</t>
+  </si>
+  <si>
+    <t>1528594581</t>
+  </si>
+  <si>
+    <t>EP0130032000277333</t>
+  </si>
+  <si>
+    <t>1528588474</t>
+  </si>
+  <si>
+    <t>EP0140032000153810</t>
+  </si>
+  <si>
+    <t>1528494741</t>
+  </si>
+  <si>
+    <t>EP0130032000277177</t>
+  </si>
+  <si>
+    <t>1528494045</t>
+  </si>
+  <si>
+    <t>EP0140032000153777</t>
+  </si>
+  <si>
+    <t>1528413674</t>
+  </si>
+  <si>
+    <t>EP0140032000152120</t>
+  </si>
+  <si>
+    <t>1525289791</t>
+  </si>
+  <si>
+    <t>EP0130032000273020</t>
+  </si>
+  <si>
+    <t>1525279040</t>
+  </si>
+  <si>
+    <t>EP0130032000270828</t>
+  </si>
+  <si>
+    <t>1524814623</t>
+  </si>
+  <si>
+    <t>EP0130032000270557</t>
+  </si>
+  <si>
+    <t>1523328507</t>
+  </si>
+  <si>
+    <t>EP0130032000270513</t>
+  </si>
+  <si>
+    <t>1523320463</t>
+  </si>
+  <si>
+    <t>EP0130032000270304</t>
+  </si>
+  <si>
+    <t>1523090238</t>
+  </si>
+  <si>
+    <t>EP0130032000270145</t>
+  </si>
+  <si>
+    <t>1523070503</t>
+  </si>
+  <si>
+    <t>EP0140032000150099</t>
+  </si>
+  <si>
+    <t>1523036570</t>
   </si>
   <si>
     <t>Totals</t>
@@ -212,8 +464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:R14" headerRowCount="1">
-  <autoFilter ref="A7:R14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A7:R51" headerRowCount="1">
+  <autoFilter ref="A7:R51"/>
   <tableColumns count="18">
     <tableColumn id="1" name="TransactionDateTime"/>
     <tableColumn id="2" name="Product"/>
@@ -241,7 +493,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" state="frozen" activePane="bottomLeft"/>
@@ -251,13 +503,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.793149948120117" customWidth="1"/>
-    <col min="2" max="2" width="30.187246322631836" customWidth="1"/>
-    <col min="3" max="3" width="20.365819931030273" customWidth="1"/>
+    <col min="2" max="2" width="35.48775100708008" customWidth="1"/>
+    <col min="3" max="3" width="41.1637077331543" customWidth="1"/>
     <col min="4" max="4" width="11.634980201721191" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.486542701721191" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="10.311413764953613" customWidth="1"/>
-    <col min="8" max="8" width="17.710966110229492" customWidth="1"/>
+    <col min="8" max="8" width="21.905532836914062" customWidth="1"/>
     <col min="9" max="9" width="13.544299125671387" customWidth="1"/>
     <col min="10" max="10" width="18.38544464111328" customWidth="1"/>
     <col min="11" max="11" width="16.099916458129883" customWidth="1"/>
@@ -304,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="6">
-        <v>26.65</v>
+        <v>127.78</v>
       </c>
     </row>
     <row r="6">
@@ -312,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="7">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -373,7 +625,7 @@
     </row>
     <row r="8">
       <c r="A8" s="8">
-        <v>45682.42497685185</v>
+        <v>45858.91730324074</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>27</v>
@@ -397,13 +649,13 @@
         <v>31</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J8" s="4">
         <v>6.5</v>
       </c>
       <c r="K8" s="0">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
@@ -412,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="4">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="O8" s="9">
-        <v>45682.42497685185</v>
+        <v>45858.91730324074</v>
       </c>
       <c r="P8" s="4">
         <v>0</v>
@@ -429,7 +681,7 @@
     </row>
     <row r="9">
       <c r="A9" s="8">
-        <v>45681.715208333335</v>
+        <v>45858.614386574074</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>27</v>
@@ -441,25 +693,25 @@
         <v>33</v>
       </c>
       <c r="E9" s="4">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="F9" s="0">
         <v>1</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I9" s="4">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="J9" s="4">
-        <v>5.2</v>
+        <v>19.5</v>
       </c>
       <c r="K9" s="0">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="L9" s="4">
         <v>0</v>
@@ -468,16 +720,16 @@
         <v>0</v>
       </c>
       <c r="N9" s="4">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="O9" s="9">
-        <v>45681.715208333335</v>
+        <v>45858.614386574074</v>
       </c>
       <c r="P9" s="4">
         <v>0</v>
       </c>
       <c r="Q9" s="4">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="R9" s="4">
         <v>0</v>
@@ -485,19 +737,19 @@
     </row>
     <row r="10">
       <c r="A10" s="8">
-        <v>45681.42451388889</v>
+        <v>45857.62695601852</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F10" s="0">
         <v>1</v>
@@ -509,13 +761,13 @@
         <v>31</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="J10" s="4">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="L10" s="4">
         <v>0</v>
@@ -524,16 +776,16 @@
         <v>0</v>
       </c>
       <c r="N10" s="4">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="O10" s="9">
-        <v>45681.42451388889</v>
+        <v>45857.62695601852</v>
       </c>
       <c r="P10" s="4">
         <v>0</v>
       </c>
       <c r="Q10" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="R10" s="4">
         <v>0</v>
@@ -541,19 +793,19 @@
     </row>
     <row r="11">
       <c r="A11" s="8">
-        <v>45681.36324074074</v>
+        <v>45857.579409722224</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F11" s="0">
         <v>1</v>
@@ -565,13 +817,13 @@
         <v>31</v>
       </c>
       <c r="I11" s="4">
-        <v>0</v>
+        <v>-4.8</v>
       </c>
       <c r="J11" s="4">
-        <v>5.2</v>
+        <v>7.8</v>
       </c>
       <c r="K11" s="0">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="L11" s="4">
         <v>0</v>
@@ -580,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="N11" s="4">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="O11" s="9">
-        <v>45681.36324074074</v>
+        <v>45857.579409722224</v>
       </c>
       <c r="P11" s="4">
         <v>0</v>
       </c>
       <c r="Q11" s="4">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R11" s="4">
         <v>0</v>
@@ -597,19 +849,19 @@
     </row>
     <row r="12">
       <c r="A12" s="8">
-        <v>45680.65782407407</v>
+        <v>45857.46107638889</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F12" s="0">
         <v>1</v>
@@ -621,75 +873,2147 @@
         <v>31</v>
       </c>
       <c r="I12" s="4">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="J12" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K12" s="0">
+        <v>-0.2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O12" s="9">
+        <v>45857.46107638889</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>20</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8">
+        <v>45857.39304398148</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="4">
+        <v>50</v>
+      </c>
+      <c r="F13" s="0">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="4">
+        <v>-4</v>
+      </c>
+      <c r="J13" s="4">
         <v>6.5</v>
       </c>
-      <c r="K12" s="0">
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
+      <c r="K13" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
+      <c r="O13" s="9">
+        <v>45857.39304398148</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>50</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
+        <v>45857.08603009259</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="4">
+        <v>50</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="4">
+        <v>-4</v>
+      </c>
+      <c r="J14" s="4">
         <v>6.5</v>
       </c>
-      <c r="O12" s="9">
-        <v>45680.65782407407</v>
-      </c>
-      <c r="P12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
+      <c r="K14" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="L14" s="4">
+        <v>-0.75</v>
+      </c>
+      <c r="M14" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O14" s="9">
+        <v>45857.08603009259</v>
+      </c>
+      <c r="P14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>50</v>
       </c>
-      <c r="R12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8">
+        <v>45856.4528587963</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="4">
+        <v>60</v>
+      </c>
+      <c r="F15" s="0">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="4">
+        <v>-4.8</v>
+      </c>
+      <c r="J15" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="K15" s="0">
+        <v>-0.6</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="O15" s="9">
+        <v>45856.4528587963</v>
+      </c>
+      <c r="P15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>60</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
+        <v>45856.00269675926</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="4">
+        <v>50</v>
+      </c>
+      <c r="F16" s="0">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="4">
+        <v>-4</v>
+      </c>
+      <c r="J16" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="K16" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="L16" s="4">
+        <v>-0.75</v>
+      </c>
+      <c r="M16" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="O16" s="9">
+        <v>45856.00269675926</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>50</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="8">
+        <v>45855.82707175926</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="4">
+        <v>20</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="J17" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K17" s="0">
+        <v>-0.2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+      <c r="N17" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="O17" s="9">
+        <v>45855.82707175926</v>
+      </c>
+      <c r="P17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>20</v>
+      </c>
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8">
+        <v>45855.729421296295</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="4">
+        <v>20</v>
+      </c>
+      <c r="F18" s="0">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="4">
+        <v>-1.6</v>
+      </c>
+      <c r="J18" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="K18" s="0">
+        <v>-0.2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="M18" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="N18" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="O18" s="9">
+        <v>45855.729421296295</v>
+      </c>
+      <c r="P18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>20</v>
+      </c>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8">
+        <v>45855.70505787037</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="4">
         <v>40</v>
       </c>
-      <c r="E13" s="5">
-        <v>205</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>26.65</v>
-      </c>
-      <c r="K13" s="5">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5">
-        <v>0</v>
-      </c>
-      <c r="M13" s="5">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5">
-        <v>26.65</v>
-      </c>
-      <c r="P13" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>205</v>
-      </c>
-      <c r="R13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14"/>
+      <c r="F19" s="0">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="4">
+        <v>-3.2</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="K19" s="0">
+        <v>-0.4</v>
+      </c>
+      <c r="L19" s="4">
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="O19" s="9">
+        <v>45855.70505787037</v>
+      </c>
+      <c r="P19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>40</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8">
+        <v>45855.6662037037</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4">
+        <v>80</v>
+      </c>
+      <c r="F20" s="0">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-6.4</v>
+      </c>
+      <c r="J20" s="4">
+        <v>10.4</v>
+      </c>
+      <c r="K20" s="0">
+        <v>-0.8</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="O20" s="9">
+        <v>45855.6662037037</v>
+      </c>
+      <c r="P20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>80</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8">
+        <v>45855.57979166666</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4">
+        <v>75</v>
+      </c>
+      <c r="F21" s="0">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="4">
+        <v>-6</v>
+      </c>
+      <c r="J21" s="4">
+        <v>9.75</v>
+      </c>
+      <c r="K21" s="0">
+        <v>-0.75</v>
+      </c>
+      <c r="L21" s="4">
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <v>3</v>
+      </c>
+      <c r="O21" s="9">
+        <v>45855.57979166666</v>
+      </c>
+      <c r="P21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>75</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8">
+        <v>45855.504583333335</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="4">
+        <v>224</v>
+      </c>
+      <c r="F22" s="0">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="4">
+        <v>-17.92</v>
+      </c>
+      <c r="J22" s="4">
+        <v>29.12</v>
+      </c>
+      <c r="K22" s="0">
+        <v>-2.24</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <v>8.96</v>
+      </c>
+      <c r="O22" s="9">
+        <v>45855.504583333335</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>224</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8">
+        <v>45855.49392361111</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="4">
+        <v>25</v>
+      </c>
+      <c r="F23" s="0">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="K23" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-0.375</v>
+      </c>
+      <c r="M23" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="O23" s="9">
+        <v>45855.49392361111</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>25</v>
+      </c>
+      <c r="R23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8">
+        <v>45855.353634259256</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="4">
+        <v>55</v>
+      </c>
+      <c r="F24" s="0">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="4">
+        <v>-4.4</v>
+      </c>
+      <c r="J24" s="4">
+        <v>7.15</v>
+      </c>
+      <c r="K24" s="0">
+        <v>-0.55</v>
+      </c>
+      <c r="L24" s="4">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="O24" s="9">
+        <v>45855.353634259256</v>
+      </c>
+      <c r="P24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>55</v>
+      </c>
+      <c r="R24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8">
+        <v>45855.35340277778</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="4">
+        <v>250</v>
+      </c>
+      <c r="F25" s="0">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="4">
+        <v>-20</v>
+      </c>
+      <c r="J25" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="K25" s="0">
+        <v>-2.5</v>
+      </c>
+      <c r="L25" s="4">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4">
+        <v>10</v>
+      </c>
+      <c r="O25" s="9">
+        <v>45855.35340277778</v>
+      </c>
+      <c r="P25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>250</v>
+      </c>
+      <c r="R25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8">
+        <v>45855.35287037037</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="4">
+        <v>250</v>
+      </c>
+      <c r="F26" s="0">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="4">
+        <v>-20</v>
+      </c>
+      <c r="J26" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="K26" s="0">
+        <v>-2.5</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4">
+        <v>10</v>
+      </c>
+      <c r="O26" s="9">
+        <v>45855.35287037037</v>
+      </c>
+      <c r="P26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>250</v>
+      </c>
+      <c r="R26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="8">
+        <v>45855.25511574074</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="4">
+        <v>50</v>
+      </c>
+      <c r="F27" s="0">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="4">
+        <v>-4</v>
+      </c>
+      <c r="J27" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="K27" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4">
+        <v>2</v>
+      </c>
+      <c r="O27" s="9">
+        <v>45855.25511574074</v>
+      </c>
+      <c r="P27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>50</v>
+      </c>
+      <c r="R27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8">
+        <v>45855.00269675926</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="4">
+        <v>25</v>
+      </c>
+      <c r="F28" s="0">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="K28" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="L28" s="4">
+        <v>-0.375</v>
+      </c>
+      <c r="M28" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="N28" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="O28" s="9">
+        <v>45855.00269675926</v>
+      </c>
+      <c r="P28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>25</v>
+      </c>
+      <c r="R28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8">
+        <v>45854.562314814815</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="4">
+        <v>100</v>
+      </c>
+      <c r="F29" s="0">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="4">
+        <v>-8</v>
+      </c>
+      <c r="J29" s="4">
+        <v>13</v>
+      </c>
+      <c r="K29" s="0">
+        <v>-1</v>
+      </c>
+      <c r="L29" s="4">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4">
+        <v>4</v>
+      </c>
+      <c r="O29" s="9">
+        <v>45854.562314814815</v>
+      </c>
+      <c r="P29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>100</v>
+      </c>
+      <c r="R29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8">
+        <v>45854.34082175926</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="4">
+        <v>30</v>
+      </c>
+      <c r="F30" s="0">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="I30" s="4">
+        <v>-2.4</v>
+      </c>
+      <c r="J30" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="K30" s="0">
+        <v>-0.3</v>
+      </c>
+      <c r="L30" s="4">
+        <v>-0.45</v>
+      </c>
+      <c r="M30" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="N30" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="O30" s="9">
+        <v>45854.34082175926</v>
+      </c>
+      <c r="P30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>30</v>
+      </c>
+      <c r="R30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8">
+        <v>45853.80684027778</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="4">
+        <v>60</v>
+      </c>
+      <c r="F31" s="0">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="4">
+        <v>-4.8</v>
+      </c>
+      <c r="J31" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="K31" s="0">
+        <v>-0.6</v>
+      </c>
+      <c r="L31" s="4">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="O31" s="9">
+        <v>45853.80684027778</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>60</v>
+      </c>
+      <c r="R31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8">
+        <v>45853.80399305555</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="4">
+        <v>25</v>
+      </c>
+      <c r="F32" s="0">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J32" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="K32" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1</v>
+      </c>
+      <c r="O32" s="9">
+        <v>45853.80399305555</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>25</v>
+      </c>
+      <c r="R32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8">
+        <v>45853.67045138889</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="4">
+        <v>50</v>
+      </c>
+      <c r="F33" s="0">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I33" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="J33" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="K33" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O33" s="9">
+        <v>45853.67045138889</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>50</v>
+      </c>
+      <c r="R33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8">
+        <v>45853.649189814816</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="4">
+        <v>100</v>
+      </c>
+      <c r="F34" s="0">
+        <v>1</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I34" s="4">
+        <v>-8</v>
+      </c>
+      <c r="J34" s="4">
+        <v>13</v>
+      </c>
+      <c r="K34" s="0">
+        <v>-1</v>
+      </c>
+      <c r="L34" s="4">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4">
+        <v>4</v>
+      </c>
+      <c r="O34" s="9">
+        <v>45853.649189814816</v>
+      </c>
+      <c r="P34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>100</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8">
+        <v>45853.37835648148</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="4">
+        <v>25</v>
+      </c>
+      <c r="F35" s="0">
+        <v>1</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="K35" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="L35" s="4">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4">
+        <v>1</v>
+      </c>
+      <c r="O35" s="9">
+        <v>45853.37835648148</v>
+      </c>
+      <c r="P35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>25</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8">
+        <v>45852.94019675926</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="4">
+        <v>25</v>
+      </c>
+      <c r="F36" s="0">
+        <v>1</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J36" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="K36" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="L36" s="4">
+        <v>-0.375</v>
+      </c>
+      <c r="M36" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="N36" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="O36" s="9">
+        <v>45852.94019675926</v>
+      </c>
+      <c r="P36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>25</v>
+      </c>
+      <c r="R36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8">
+        <v>45852.765069444446</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="4">
+        <v>50</v>
+      </c>
+      <c r="F37" s="0">
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" s="4">
+        <v>-4</v>
+      </c>
+      <c r="J37" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="K37" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="L37" s="4">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4">
+        <v>2</v>
+      </c>
+      <c r="O37" s="9">
+        <v>45852.765069444446</v>
+      </c>
+      <c r="P37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>50</v>
+      </c>
+      <c r="R37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8">
+        <v>45852.694814814815</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="4">
+        <v>250</v>
+      </c>
+      <c r="F38" s="0">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I38" s="4">
+        <v>-20</v>
+      </c>
+      <c r="J38" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="K38" s="0">
+        <v>-2.5</v>
+      </c>
+      <c r="L38" s="4">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <v>10</v>
+      </c>
+      <c r="O38" s="9">
+        <v>45852.694814814815</v>
+      </c>
+      <c r="P38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>250</v>
+      </c>
+      <c r="R38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8">
+        <v>45852.4540162037</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="4">
+        <v>250</v>
+      </c>
+      <c r="F39" s="0">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="J39" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="K39" s="0">
+        <v>-2.5</v>
+      </c>
+      <c r="L39" s="4">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="O39" s="9">
+        <v>45852.4540162037</v>
+      </c>
+      <c r="P39" s="4">
+        <v>-250</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0</v>
+      </c>
+      <c r="R39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8">
+        <v>45852.45270833333</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="4">
+        <v>250</v>
+      </c>
+      <c r="F40" s="0">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I40" s="4">
+        <v>-22.5</v>
+      </c>
+      <c r="J40" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="K40" s="0">
+        <v>-2.5</v>
+      </c>
+      <c r="L40" s="4">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="O40" s="9">
+        <v>45852.45270833333</v>
+      </c>
+      <c r="P40" s="4">
+        <v>-250</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>0</v>
+      </c>
+      <c r="R40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="8">
+        <v>45852.2908912037</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="4">
+        <v>25</v>
+      </c>
+      <c r="F41" s="0">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J41" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="K41" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="L41" s="4">
+        <v>-0.375</v>
+      </c>
+      <c r="M41" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="N41" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="O41" s="9">
+        <v>45852.2908912037</v>
+      </c>
+      <c r="P41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="4">
+        <v>25</v>
+      </c>
+      <c r="R41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8">
+        <v>45845.52548611111</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E42" s="4">
+        <v>40</v>
+      </c>
+      <c r="F42" s="0">
+        <v>1</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="4">
+        <v>-3.2</v>
+      </c>
+      <c r="J42" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="K42" s="0">
+        <v>-0.4</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="O42" s="9">
+        <v>45845.52548611111</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>40</v>
+      </c>
+      <c r="R42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="8">
+        <v>45845.38811342593</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" s="4">
+        <v>150</v>
+      </c>
+      <c r="F43" s="0">
+        <v>1</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" s="4">
+        <v>-12</v>
+      </c>
+      <c r="J43" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="K43" s="0">
+        <v>-1.5</v>
+      </c>
+      <c r="L43" s="4">
+        <v>-2.25</v>
+      </c>
+      <c r="M43" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="N43" s="4">
+        <v>3.55</v>
+      </c>
+      <c r="O43" s="9">
+        <v>45845.38811342593</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>150</v>
+      </c>
+      <c r="R43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8">
+        <v>45840.876435185186</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="4">
+        <v>30</v>
+      </c>
+      <c r="F44" s="0">
+        <v>1</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I44" s="4">
+        <v>-2.4</v>
+      </c>
+      <c r="J44" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="K44" s="0">
+        <v>-0.3</v>
+      </c>
+      <c r="L44" s="4">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="O44" s="9">
+        <v>45840.876435185186</v>
+      </c>
+      <c r="P44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
+        <v>30</v>
+      </c>
+      <c r="R44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="8">
+        <v>45840.55243055556</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="4">
+        <v>25</v>
+      </c>
+      <c r="F45" s="0">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J45" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="K45" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="L45" s="4">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
+        <v>0</v>
+      </c>
+      <c r="N45" s="4">
+        <v>1</v>
+      </c>
+      <c r="O45" s="9">
+        <v>45840.55243055556</v>
+      </c>
+      <c r="P45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
+        <v>25</v>
+      </c>
+      <c r="R45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8">
+        <v>45840.47231481481</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="4">
+        <v>150</v>
+      </c>
+      <c r="F46" s="0">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="4">
+        <v>-13.5</v>
+      </c>
+      <c r="J46" s="4">
+        <v>19.5</v>
+      </c>
+      <c r="K46" s="0">
+        <v>-1.5</v>
+      </c>
+      <c r="L46" s="4">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
+        <v>0</v>
+      </c>
+      <c r="N46" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="O46" s="9">
+        <v>45840.47231481481</v>
+      </c>
+      <c r="P46" s="4">
+        <v>-150</v>
+      </c>
+      <c r="Q46" s="4">
+        <v>0</v>
+      </c>
+      <c r="R46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="8">
+        <v>45839.99959490741</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="E47" s="4">
+        <v>25</v>
+      </c>
+      <c r="F47" s="0">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I47" s="4">
+        <v>-2</v>
+      </c>
+      <c r="J47" s="4">
+        <v>3.25</v>
+      </c>
+      <c r="K47" s="0">
+        <v>-0.25</v>
+      </c>
+      <c r="L47" s="4">
+        <v>0</v>
+      </c>
+      <c r="M47" s="4">
+        <v>0</v>
+      </c>
+      <c r="N47" s="4">
+        <v>1</v>
+      </c>
+      <c r="O47" s="9">
+        <v>45839.99959490741</v>
+      </c>
+      <c r="P47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="4">
+        <v>25</v>
+      </c>
+      <c r="R47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8">
+        <v>45839.73268518518</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="4">
+        <v>200</v>
+      </c>
+      <c r="F48" s="0">
+        <v>1</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I48" s="4">
+        <v>-16</v>
+      </c>
+      <c r="J48" s="4">
+        <v>26</v>
+      </c>
+      <c r="K48" s="0">
+        <v>-2</v>
+      </c>
+      <c r="L48" s="4">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
+        <v>0</v>
+      </c>
+      <c r="N48" s="4">
+        <v>8</v>
+      </c>
+      <c r="O48" s="9">
+        <v>45839.73268518518</v>
+      </c>
+      <c r="P48" s="4">
+        <v>-200</v>
+      </c>
+      <c r="Q48" s="4">
+        <v>0</v>
+      </c>
+      <c r="R48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="8">
+        <v>45839.449282407404</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E49" s="4">
+        <v>50</v>
+      </c>
+      <c r="F49" s="0">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I49" s="4">
+        <v>-4</v>
+      </c>
+      <c r="J49" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="K49" s="0">
+        <v>-0.5</v>
+      </c>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
+        <v>0</v>
+      </c>
+      <c r="N49" s="4">
+        <v>2</v>
+      </c>
+      <c r="O49" s="9">
+        <v>45839.449282407404</v>
+      </c>
+      <c r="P49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
+        <v>50</v>
+      </c>
+      <c r="R49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="5">
+        <v>3564</v>
+      </c>
+      <c r="F50" s="1">
+        <v>42</v>
+      </c>
+      <c r="I50" s="5">
+        <v>-292.12</v>
+      </c>
+      <c r="J50" s="5">
+        <v>463.32</v>
+      </c>
+      <c r="K50" s="5">
+        <v>-35.64</v>
+      </c>
+      <c r="L50" s="5">
+        <v>-6</v>
+      </c>
+      <c r="M50" s="5">
+        <v>-1.8</v>
+      </c>
+      <c r="N50" s="5">
+        <v>127.78</v>
+      </c>
+      <c r="P50" s="5">
+        <v>-850</v>
+      </c>
+      <c r="Q50" s="5">
+        <v>2714</v>
+      </c>
+      <c r="R50" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51"/>
   </sheetData>
   <headerFooter/>
   <tableParts>
